--- a/results/results_overview.xlsx
+++ b/results/results_overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim-Carolin\Documents\GitHub\automatic_speech_emotion_recognition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C0E6B8-A9DE-4693-902A-F859CD8EFCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A72FC7-5825-490A-B2A7-A7D51CCA3B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
   <si>
     <t>SVM</t>
   </si>
@@ -292,12 +292,6 @@
     </r>
   </si>
   <si>
-    <t>93.28%</t>
-  </si>
-  <si>
-    <t>78.42%</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">only energy, pitch, LPCCs, MFCCs, and LPCMFCCs statistics (186 features) -&gt; </t>
     </r>
@@ -360,6 +354,175 @@
   </si>
   <si>
     <t>64.11%</t>
+  </si>
+  <si>
+    <t>all numerical features</t>
+  </si>
+  <si>
+    <t>85-7.5-7.5</t>
+  </si>
+  <si>
+    <t>MLP-FFNN</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 10 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>99.57%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.58% </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all numerical features (from all stats) -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PCA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(103 features)</t>
+    </r>
+  </si>
+  <si>
+    <t>97.85%</t>
+  </si>
+  <si>
+    <t>70.56%</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>overfitting</t>
+  </si>
+  <si>
+    <t>80-20</t>
+  </si>
+  <si>
+    <t>97.93%</t>
+  </si>
+  <si>
+    <t>76.83%</t>
+  </si>
+  <si>
+    <t>94.16%</t>
+  </si>
+  <si>
+    <t>78.63%</t>
+  </si>
+  <si>
+    <t>92.58%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.60% </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all numerical features -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Featurewiz </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(97 features)</t>
+    </r>
+  </si>
+  <si>
+    <t>70-30</t>
+  </si>
+  <si>
+    <t>97.77%</t>
+  </si>
+  <si>
+    <t>72.94%</t>
+  </si>
+  <si>
+    <t>98.27%</t>
+  </si>
+  <si>
+    <t>80.92%</t>
+  </si>
+  <si>
+    <t>GFFNN</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 9 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>96.50%</t>
+  </si>
+  <si>
+    <t>83.35%</t>
+  </si>
+  <si>
+    <t>most important features (featurewiz 97)</t>
+  </si>
+  <si>
+    <t>70-15-15</t>
+  </si>
+  <si>
+    <t>99.55%</t>
+  </si>
+  <si>
+    <t>72.38%</t>
+  </si>
+  <si>
+    <t>features from paper - all statistics</t>
+  </si>
+  <si>
+    <t>97.89%</t>
+  </si>
+  <si>
+    <t>78.08%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 17 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 13 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>91.83%</t>
+  </si>
+  <si>
+    <t>57.54%</t>
+  </si>
+  <si>
+    <t>93.04%</t>
+  </si>
+  <si>
+    <t>68.79%</t>
   </si>
 </sst>
 </file>
@@ -389,7 +552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +577,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -453,11 +622,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -502,6 +693,39 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,10 +1042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC463B8-7CA3-421A-B5A9-34F975ADEC63}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -836,7 +1061,7 @@
     <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -858,8 +1083,11 @@
       <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -882,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>4</v>
       </c>
@@ -905,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="9">
         <v>4</v>
       </c>
@@ -928,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -951,7 +1179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -974,7 +1202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -997,7 +1225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1020,7 +1248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1043,7 +1271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1066,7 +1294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -1089,7 +1317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1112,7 +1340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -1135,7 +1363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>3</v>
       </c>
@@ -1158,7 +1386,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -1181,7 +1409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -1204,77 +1432,75 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.45">
-      <c r="A17" s="13">
+    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17" s="19">
         <v>3</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="C18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>26</v>
@@ -1286,29 +1512,262 @@
         <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="16">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="C26" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D26" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="19">
+        <v>1</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="19">
+        <v>1</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="19">
+        <v>1</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="24">
+        <v>1</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="24">
+        <v>1</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/results/results_overview.xlsx
+++ b/results/results_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim-Carolin\Documents\GitHub\automatic_speech_emotion_recognition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A72FC7-5825-490A-B2A7-A7D51CCA3B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB550639-0B54-4F02-83C6-9184AB4C054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
   <si>
     <t>SVM</t>
   </si>
@@ -523,6 +523,39 @@
   </si>
   <si>
     <t>68.79%</t>
+  </si>
+  <si>
+    <t>features from paper - featurewiz (16 features)</t>
+  </si>
+  <si>
+    <t>73.33%</t>
+  </si>
+  <si>
+    <t>60.44%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 4 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>70.61%</t>
+  </si>
+  <si>
+    <t>62.69%</t>
+  </si>
+  <si>
+    <t>90-5-5</t>
+  </si>
+  <si>
+    <t>98.24%</t>
+  </si>
+  <si>
+    <t>63.30%</t>
+  </si>
+  <si>
+    <t>98.28%</t>
+  </si>
+  <si>
+    <t>63.67%</t>
   </si>
 </sst>
 </file>
@@ -648,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -704,19 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1042,11 +1063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC463B8-7CA3-421A-B5A9-34F975ADEC63}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1433,67 +1454,67 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A17" s="19">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1654,119 +1675,211 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="19">
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
         <v>1</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="19">
+    <row r="28" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="19">
+    <row r="29" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="24">
+    <row r="30" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="20">
         <v>1</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="24">
+    <row r="31" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="20">
         <v>1</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="20" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="20">
+        <v>1</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="20">
+        <v>1</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="20">
+        <v>1</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="20">
+        <v>1</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_overview.xlsx
+++ b/results/results_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim-Carolin\Documents\GitHub\automatic_speech_emotion_recognition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB550639-0B54-4F02-83C6-9184AB4C054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1002C6F1-7D57-4F4F-A7E0-9204D3CAB3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="142">
   <si>
     <t>SVM</t>
   </si>
@@ -556,6 +556,78 @@
   </si>
   <si>
     <t>63.67%</t>
+  </si>
+  <si>
+    <t>ELM</t>
+  </si>
+  <si>
+    <t>94.71%</t>
+  </si>
+  <si>
+    <t>66.80%</t>
+  </si>
+  <si>
+    <t>ufunc='sigm' (instead of tanh)</t>
+  </si>
+  <si>
+    <t>95.37%</t>
+  </si>
+  <si>
+    <t>66.57%</t>
+  </si>
+  <si>
+    <t>pairwise_metric='euclidean'</t>
+  </si>
+  <si>
+    <t>pairwise_metric='euclidean' (ufunc, density would anyways be ignored then, like rbf-kernel)</t>
+  </si>
+  <si>
+    <t>97.41%</t>
+  </si>
+  <si>
+    <t>73.09%</t>
+  </si>
+  <si>
+    <t>pairwise_metric='cosine'</t>
+  </si>
+  <si>
+    <t>91.73%</t>
+  </si>
+  <si>
+    <t>80.27%</t>
+  </si>
+  <si>
+    <t>worse train results but better generalization</t>
+  </si>
+  <si>
+    <t>94.75%</t>
+  </si>
+  <si>
+    <t>68.09%</t>
+  </si>
+  <si>
+    <t>features from paper - 16 selected (featurewiz)</t>
+  </si>
+  <si>
+    <t>63.92%</t>
+  </si>
+  <si>
+    <t>50.51%</t>
+  </si>
+  <si>
+    <t>91.86%</t>
+  </si>
+  <si>
+    <t>52.49%</t>
+  </si>
+  <si>
+    <t>worse after feature selection</t>
+  </si>
+  <si>
+    <t>81.65%</t>
+  </si>
+  <si>
+    <t>54.86%</t>
   </si>
 </sst>
 </file>
@@ -617,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -677,11 +749,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,6 +828,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,11 +1162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC463B8-7CA3-421A-B5A9-34F975ADEC63}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34:G34"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1079,7 +1178,8 @@
     <col min="5" max="5" width="34.1328125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="1"/>
+    <col min="8" max="8" width="35.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -1813,7 +1913,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="20">
         <v>1</v>
       </c>
@@ -1836,7 +1936,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="20">
         <v>1</v>
       </c>
@@ -1859,7 +1959,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="20">
         <v>1</v>
       </c>
@@ -1881,6 +1981,210 @@
       <c r="G35" s="20" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="5">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="5">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="25">
+        <v>2</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="23"/>
+      <c r="B44" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/results/results_overview.xlsx
+++ b/results/results_overview.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim-Carolin\Documents\GitHub\automatic_speech_emotion_recognition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1002C6F1-7D57-4F4F-A7E0-9204D3CAB3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF1050-291A-4DE9-BB2D-D9F4E22A56C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
   </bookViews>
   <sheets>
     <sheet name="TraditionalML" sheetId="1" r:id="rId1"/>
+    <sheet name="TraditionalML_enhanced_data" sheetId="3" r:id="rId2"/>
+    <sheet name="TraditionalML_female_male_dif" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TraditionalML!$A$1:$H$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TraditionalML_female_male_dif!$A$1:$I$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="295">
   <si>
     <t>SVM</t>
   </si>
@@ -223,9 +229,6 @@
   </si>
   <si>
     <t>42.16%</t>
-  </si>
-  <si>
-    <t>C': 0.01, 'class_weight': 'balanced', 'decision_function_shape': 'ovo', 'gamma': 0.01, 'kernel': 'linear'</t>
   </si>
   <si>
     <t>89.79%</t>
@@ -359,19 +362,7 @@
     <t>all numerical features</t>
   </si>
   <si>
-    <t>85-7.5-7.5</t>
-  </si>
-  <si>
     <t>MLP-FFNN</t>
-  </si>
-  <si>
-    <t>Adam optimizer, Cross-entropy loss, 10 epochs (early stopping)</t>
-  </si>
-  <si>
-    <t>99.57%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.58% </t>
   </si>
   <si>
     <r>
@@ -477,157 +468,667 @@
     <t>GFFNN</t>
   </si>
   <si>
-    <t>Adam optimizer, Cross-entropy loss, 9 epochs (early stopping)</t>
-  </si>
-  <si>
-    <t>96.50%</t>
-  </si>
-  <si>
-    <t>83.35%</t>
-  </si>
-  <si>
     <t>most important features (featurewiz 97)</t>
   </si>
   <si>
     <t>70-15-15</t>
   </si>
   <si>
+    <t>features from paper - all statistics</t>
+  </si>
+  <si>
+    <t>78.08%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 17 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>features from paper - featurewiz (16 features)</t>
+  </si>
+  <si>
+    <t>90-5-5</t>
+  </si>
+  <si>
+    <t>ELM</t>
+  </si>
+  <si>
+    <t>94.71%</t>
+  </si>
+  <si>
+    <t>66.80%</t>
+  </si>
+  <si>
+    <t>ufunc='sigm' (instead of tanh)</t>
+  </si>
+  <si>
+    <t>95.37%</t>
+  </si>
+  <si>
+    <t>66.57%</t>
+  </si>
+  <si>
+    <t>pairwise_metric='euclidean'</t>
+  </si>
+  <si>
+    <t>pairwise_metric='euclidean' (ufunc, density would anyways be ignored then, like rbf-kernel)</t>
+  </si>
+  <si>
+    <t>97.41%</t>
+  </si>
+  <si>
+    <t>73.09%</t>
+  </si>
+  <si>
+    <t>pairwise_metric='cosine'</t>
+  </si>
+  <si>
+    <t>91.73%</t>
+  </si>
+  <si>
+    <t>80.27%</t>
+  </si>
+  <si>
+    <t>worse train results but better generalization</t>
+  </si>
+  <si>
+    <t>94.75%</t>
+  </si>
+  <si>
+    <t>68.09%</t>
+  </si>
+  <si>
+    <t>features from paper - 16 selected (featurewiz)</t>
+  </si>
+  <si>
+    <t>63.92%</t>
+  </si>
+  <si>
+    <t>50.51%</t>
+  </si>
+  <si>
+    <t>91.86%</t>
+  </si>
+  <si>
+    <t>52.49%</t>
+  </si>
+  <si>
+    <t>worse after feature selection</t>
+  </si>
+  <si>
+    <t>81.65%</t>
+  </si>
+  <si>
+    <t>54.86%</t>
+  </si>
+  <si>
+    <t>Decision tree (best model)</t>
+  </si>
+  <si>
+    <t>'criterion': 'gini', 'max_depth': 5</t>
+  </si>
+  <si>
+    <t>77.22%</t>
+  </si>
+  <si>
+    <t>55.53%</t>
+  </si>
+  <si>
+    <t>Random Forest (best model)</t>
+  </si>
+  <si>
+    <t>'bootstrap': False, 'max_depth': 20, 'n_estimators': 200, 'warm_start': True</t>
+  </si>
+  <si>
+    <t>79.14%</t>
+  </si>
+  <si>
+    <t>knn Classifier (best model)</t>
+  </si>
+  <si>
+    <t>'n_neighbors': 7, 'weights': 'distance'</t>
+  </si>
+  <si>
+    <t>63.71%</t>
+  </si>
+  <si>
+    <t>Gaussian Naive Bayes</t>
+  </si>
+  <si>
+    <t>83.53%</t>
+  </si>
+  <si>
+    <t>70.95%</t>
+  </si>
+  <si>
+    <t>Bernoulli Naive Bayes</t>
+  </si>
+  <si>
+    <t>75.41%</t>
+  </si>
+  <si>
+    <t>74.31%</t>
+  </si>
+  <si>
+    <t>very good at generalization (test score almost as good as train score)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall best results but also only using 5 emotions </t>
+  </si>
+  <si>
+    <t>all numerical features (all stats)</t>
+  </si>
+  <si>
+    <t>'bootstrap': False, 'max_depth': 10, 'n_estimators': 200, 'warm_start': True</t>
+  </si>
+  <si>
+    <t>77.66%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all numerical features -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PCA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(103 components)</t>
+    </r>
+  </si>
+  <si>
+    <t>bootstrap': False, 'max_depth': 20, 'n_estimators': 200, 'warm_start': True</t>
+  </si>
+  <si>
+    <t>71.50%</t>
+  </si>
+  <si>
+    <t>XGB Classifier (best model)</t>
+  </si>
+  <si>
+    <t>80.31%</t>
+  </si>
+  <si>
+    <t>learning_rate': 0.1, 'max_depth': 2, 'n_estimators': 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.71% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.52% </t>
+  </si>
+  <si>
+    <t>worse than with chosen features</t>
+  </si>
+  <si>
+    <t>99.78%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 23 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>68.64%</t>
+  </si>
+  <si>
+    <t>learning_rate': 0.5, 'max_depth': 2, 'n_estimators': 100</t>
+  </si>
+  <si>
+    <t>80.49%</t>
+  </si>
+  <si>
+    <t>really high learning rate, compared to selected features (featurewiz) not significantly better</t>
+  </si>
+  <si>
+    <t>learning_rate': 0.5, 'max_depth': 2, 'n_estimators': 200</t>
+  </si>
+  <si>
+    <t>70.55%</t>
+  </si>
+  <si>
+    <t>lists, 1D arrays only</t>
+  </si>
+  <si>
+    <t>HMM (trained 7 models separately for emotions)</t>
+  </si>
+  <si>
+    <t>n_components=3, n_iter=1000</t>
+  </si>
+  <si>
+    <t>6.08%</t>
+  </si>
+  <si>
+    <t>3.73%</t>
+  </si>
+  <si>
+    <t>really bad, trained with concatenating all features per row, padded sequences (probably to many zeroes inside -&gt; kind of expected)</t>
+  </si>
+  <si>
+    <t>HMM (trained 1 model with 7 components)</t>
+  </si>
+  <si>
+    <t>n_components=7, n_iter=1000</t>
+  </si>
+  <si>
+    <t>15.86%</t>
+  </si>
+  <si>
+    <t>12.25%</t>
+  </si>
+  <si>
+    <r>
+      <t>C': 0.01, 'class_weight': 'balanced', 'decision_function_shape': 'ovo', 'gamma': 0.01,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'kernel': 'linear'</t>
+    </r>
+  </si>
+  <si>
+    <t>95.28%</t>
+  </si>
+  <si>
+    <t>76.79%</t>
+  </si>
+  <si>
+    <t>overfitting; train-test split of 70-30 around the same results (slightly worse here)</t>
+  </si>
+  <si>
+    <t>fmd</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>97.76%</t>
+  </si>
+  <si>
+    <t>78.88%</t>
+  </si>
+  <si>
+    <t>97.51%</t>
+  </si>
+  <si>
+    <t>74.90%</t>
+  </si>
+  <si>
+    <t>94.98%</t>
+  </si>
+  <si>
+    <t>65.17%</t>
+  </si>
+  <si>
+    <t>94.87%</t>
+  </si>
+  <si>
+    <t>64.96%</t>
+  </si>
+  <si>
+    <t>98.21%</t>
+  </si>
+  <si>
+    <t>73.30%</t>
+  </si>
+  <si>
+    <t>92.24%</t>
+  </si>
+  <si>
+    <t>80.09%</t>
+  </si>
+  <si>
+    <t>93.99%</t>
+  </si>
+  <si>
+    <t>94.60%</t>
+  </si>
+  <si>
+    <t>66.18%</t>
+  </si>
+  <si>
+    <t>82.73%</t>
+  </si>
+  <si>
+    <t>64.67%</t>
+  </si>
+  <si>
+    <t>94.53%</t>
+  </si>
+  <si>
+    <t>75.04%</t>
+  </si>
+  <si>
+    <t>'criterion': 'gini', 'max_depth': 20</t>
+  </si>
+  <si>
+    <t>51.50%</t>
+  </si>
+  <si>
+    <t>76.15%</t>
+  </si>
+  <si>
+    <t>69.61%</t>
+  </si>
+  <si>
+    <t>81.72%</t>
+  </si>
+  <si>
+    <t>71.13%</t>
+  </si>
+  <si>
+    <t>75.87%</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>'learning_rate': 0.1, 'max_depth': 5, 'n_estimators': 100</t>
+  </si>
+  <si>
+    <t>72.27%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 12 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>99.19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.73% </t>
+  </si>
+  <si>
+    <t>80.58%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 18 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>74.81%</t>
+  </si>
+  <si>
+    <t>97.58%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 14 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>93.79%</t>
+  </si>
+  <si>
+    <t>56.54%</t>
+  </si>
+  <si>
+    <t>95.54%</t>
+  </si>
+  <si>
+    <t>67.98%</t>
+  </si>
+  <si>
+    <t>69.93%</t>
+  </si>
+  <si>
+    <t>59.31%</t>
+  </si>
+  <si>
+    <t>71.82%</t>
+  </si>
+  <si>
+    <t>57.67%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 19 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 25 epochs (no early stopping)</t>
+  </si>
+  <si>
+    <t>63.83%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss, 22 epochs (early stopping)</t>
+  </si>
+  <si>
+    <t>59.78%</t>
+  </si>
+  <si>
+    <t>before GFFNN was better -&gt; training is really not stable</t>
+  </si>
+  <si>
+    <t>70.67%</t>
+  </si>
+  <si>
+    <t>Extensive hyperparameter optimization</t>
+  </si>
+  <si>
+    <t>SVM (best model)</t>
+  </si>
+  <si>
+    <t>'C': 10, 'class_weight': 'balanced', 'decision_function_shape': 'ovo', 'degree': 2, 'gamma': 'scale', 'kernel': 'rbf'</t>
+  </si>
+  <si>
+    <t>80.13%</t>
+  </si>
+  <si>
+    <t>eta': 0.1, 'gamma': 0, 'max_depth': 2, 'n_estimators': 300, 'sampling_method': 'uniform', updater='grow_gpu_hist', tree_method='gpu_hist'</t>
+  </si>
+  <si>
+    <t>81.52%</t>
+  </si>
+  <si>
+    <t>68.51%</t>
+  </si>
+  <si>
+    <t>64.12%</t>
+  </si>
+  <si>
+    <t>Feature selection</t>
+  </si>
+  <si>
+    <t>EmoDB</t>
+  </si>
+  <si>
+    <t>Ravdess</t>
+  </si>
+  <si>
+    <t>EmoDB + Ravdess</t>
+  </si>
+  <si>
+    <t>featurewiz 97</t>
+  </si>
+  <si>
     <t>99.55%</t>
   </si>
   <si>
-    <t>72.38%</t>
-  </si>
-  <si>
-    <t>features from paper - all statistics</t>
-  </si>
-  <si>
-    <t>97.89%</t>
-  </si>
-  <si>
-    <t>78.08%</t>
-  </si>
-  <si>
-    <t>Adam optimizer, Cross-entropy loss, 17 epochs (early stopping)</t>
-  </si>
-  <si>
-    <t>Adam optimizer, Cross-entropy loss, 13 epochs (early stopping)</t>
-  </si>
-  <si>
-    <t>91.83%</t>
-  </si>
-  <si>
-    <t>57.54%</t>
-  </si>
-  <si>
-    <t>93.04%</t>
-  </si>
-  <si>
-    <t>68.79%</t>
-  </si>
-  <si>
-    <t>features from paper - featurewiz (16 features)</t>
-  </si>
-  <si>
-    <t>73.33%</t>
-  </si>
-  <si>
-    <t>60.44%</t>
-  </si>
-  <si>
-    <t>Adam optimizer, Cross-entropy loss, 4 epochs (early stopping)</t>
-  </si>
-  <si>
-    <t>70.61%</t>
-  </si>
-  <si>
-    <t>62.69%</t>
-  </si>
-  <si>
-    <t>90-5-5</t>
-  </si>
-  <si>
-    <t>98.24%</t>
-  </si>
-  <si>
-    <t>63.30%</t>
-  </si>
-  <si>
-    <t>98.28%</t>
-  </si>
-  <si>
-    <t>63.67%</t>
-  </si>
-  <si>
-    <t>ELM</t>
-  </si>
-  <si>
-    <t>94.71%</t>
-  </si>
-  <si>
-    <t>66.80%</t>
-  </si>
-  <si>
-    <t>ufunc='sigm' (instead of tanh)</t>
-  </si>
-  <si>
-    <t>95.37%</t>
-  </si>
-  <si>
-    <t>66.57%</t>
-  </si>
-  <si>
-    <t>pairwise_metric='euclidean'</t>
-  </si>
-  <si>
-    <t>pairwise_metric='euclidean' (ufunc, density would anyways be ignored then, like rbf-kernel)</t>
-  </si>
-  <si>
-    <t>97.41%</t>
-  </si>
-  <si>
-    <t>73.09%</t>
-  </si>
-  <si>
-    <t>pairwise_metric='cosine'</t>
-  </si>
-  <si>
-    <t>91.73%</t>
-  </si>
-  <si>
-    <t>80.27%</t>
-  </si>
-  <si>
-    <t>worse train results but better generalization</t>
-  </si>
-  <si>
-    <t>94.75%</t>
-  </si>
-  <si>
-    <t>68.09%</t>
-  </si>
-  <si>
-    <t>features from paper - 16 selected (featurewiz)</t>
-  </si>
-  <si>
-    <t>63.92%</t>
-  </si>
-  <si>
-    <t>50.51%</t>
-  </si>
-  <si>
-    <t>91.86%</t>
-  </si>
-  <si>
-    <t>52.49%</t>
-  </si>
-  <si>
-    <t>worse after feature selection</t>
-  </si>
-  <si>
-    <t>81.65%</t>
-  </si>
-  <si>
-    <t>54.86%</t>
+    <t xml:space="preserve">73.59% </t>
+  </si>
+  <si>
+    <t>99.92%</t>
+  </si>
+  <si>
+    <t>68.49%</t>
+  </si>
+  <si>
+    <t>own featurewiz (233)</t>
+  </si>
+  <si>
+    <t>80.18%</t>
+  </si>
+  <si>
+    <t>75.29%</t>
+  </si>
+  <si>
+    <t>Iemocap</t>
+  </si>
+  <si>
+    <t>99.60%</t>
+  </si>
+  <si>
+    <t>44.88%</t>
+  </si>
+  <si>
+    <t>94.85%</t>
+  </si>
+  <si>
+    <t>44.44%</t>
+  </si>
+  <si>
+    <t>EmoDB + Iemocap</t>
+  </si>
+  <si>
+    <t>98.58%</t>
+  </si>
+  <si>
+    <t>62.68%</t>
+  </si>
+  <si>
+    <t>94.95%</t>
+  </si>
+  <si>
+    <t>59.42%</t>
+  </si>
+  <si>
+    <t>own featurewiz (229)</t>
+  </si>
+  <si>
+    <t>99.37%</t>
+  </si>
+  <si>
+    <t>66.41%</t>
+  </si>
+  <si>
+    <t>96.99%</t>
+  </si>
+  <si>
+    <t>63.39%</t>
+  </si>
+  <si>
+    <t>EmoDB + Ravdess +  Iemocap</t>
+  </si>
+  <si>
+    <t>97.94%</t>
+  </si>
+  <si>
+    <t>62.93%</t>
+  </si>
+  <si>
+    <t>90.73%</t>
+  </si>
+  <si>
+    <t>58.55%</t>
+  </si>
+  <si>
+    <t>own featurewiz (201)</t>
+  </si>
+  <si>
+    <t>99.39%</t>
+  </si>
+  <si>
+    <t>69.02%</t>
+  </si>
+  <si>
+    <t>93.56%</t>
+  </si>
+  <si>
+    <t>64.56%</t>
+  </si>
+  <si>
+    <t>own featurewiz (235)</t>
+  </si>
+  <si>
+    <t>76.42%</t>
+  </si>
+  <si>
+    <t>70.98%</t>
+  </si>
+  <si>
+    <t>own featurewiz (236)</t>
+  </si>
+  <si>
+    <t>99.81%</t>
+  </si>
+  <si>
+    <t>52.23%</t>
+  </si>
+  <si>
+    <t>96.79%</t>
+  </si>
+  <si>
+    <t>47.16%</t>
+  </si>
+  <si>
+    <t>'bootstrap': False, 'class_weight': 'balanced', 'criterion': 'gini', 'max_depth': 10, 'max_features': 'log2', 'min_samples_leaf': 2, 'min_samples_split': 5, 'n_estimators': 300, 'warm_start': True</t>
+  </si>
+  <si>
+    <t>78.12%</t>
+  </si>
+  <si>
+    <t>58.04%</t>
+  </si>
+  <si>
+    <t>64.58%</t>
+  </si>
+  <si>
+    <t>69.29%</t>
+  </si>
+  <si>
+    <t>73.58%</t>
+  </si>
+  <si>
+    <t>99.17%</t>
+  </si>
+  <si>
+    <t>43.15%</t>
+  </si>
+  <si>
+    <t>99.20%</t>
+  </si>
+  <si>
+    <t>46.51%</t>
+  </si>
+  <si>
+    <t>98.36%</t>
+  </si>
+  <si>
+    <t>58.54%</t>
+  </si>
+  <si>
+    <t>98.40%</t>
+  </si>
+  <si>
+    <t>59.69%</t>
+  </si>
+  <si>
+    <t>94.62%</t>
+  </si>
+  <si>
+    <t>57.96%</t>
+  </si>
+  <si>
+    <t>95.22%</t>
+  </si>
+  <si>
+    <t>61.37%</t>
   </si>
 </sst>
 </file>
@@ -689,7 +1190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -758,11 +1259,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -836,17 +1389,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,11 +1819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC463B8-7CA3-421A-B5A9-34F975ADEC63}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1205,7 +1862,7 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
@@ -1388,8 +2045,11 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="16" t="s">
         <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1485,101 +2145,103 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11">
+      <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>26</v>
@@ -1587,23 +2249,23 @@
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>0</v>
@@ -1612,19 +2274,19 @@
         <v>22</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>0</v>
@@ -1633,66 +2295,66 @@
         <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A22" s="3">
+      <c r="H22" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
@@ -1700,20 +2362,20 @@
       <c r="D23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -1725,100 +2387,104 @@
         <v>22</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="16">
+        <v>1</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="D27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="16">
+        <v>1</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="16">
-        <v>1</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>97</v>
+      <c r="E28" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -1826,45 +2492,45 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="20">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="13">
         <v>1</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>104</v>
+      <c r="B30" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -1872,45 +2538,45 @@
         <v>1</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="20">
         <v>1</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -1918,45 +2584,45 @@
         <v>1</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D33" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="F33" s="20" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="20">
         <v>1</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -1964,91 +2630,91 @@
         <v>1</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="5">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="20">
+        <v>1</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
-        <v>2</v>
+      <c r="E36" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="20">
+        <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E37" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -2056,74 +2722,71 @@
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="5">
+      <c r="A41" s="26">
         <v>2</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>136</v>
+      <c r="B41" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -2131,64 +2794,2136 @@
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="5">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="5">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="32">
+        <v>2</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="23"/>
+      <c r="B47" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F47" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="23"/>
+      <c r="B49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="23"/>
+      <c r="B50" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="23"/>
+      <c r="B51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="E51" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="23"/>
+      <c r="B52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="23"/>
+      <c r="B53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="28"/>
+      <c r="B54" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A55" s="23"/>
+      <c r="B55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="23"/>
+      <c r="B56" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="25">
-        <v>2</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="25" t="s">
+      <c r="C56" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="H43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="23"/>
-      <c r="B44" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+      <c r="E56" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A57" s="43"/>
+      <c r="B57" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="45"/>
+      <c r="B58" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" s="47"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A62" s="62"/>
+      <c r="B62" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="62" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H54" xr:uid="{4BC463B8-7CA3-421A-B5A9-34F975ADEC63}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6298E22-CAFA-4DDD-AF4D-CCE1042CB008}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="37.46484375" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" style="55" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A23" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A25" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A27" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A31" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" s="56" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28281FF4-2F53-486B-9406-1DAD9CD507A7}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="5.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="13">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="13">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="19" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="13">
+        <v>2</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I33" xr:uid="{28281FF4-2F53-486B-9406-1DAD9CD507A7}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/results_overview.xlsx
+++ b/results/results_overview.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim-Carolin\Documents\GitHub\automatic_speech_emotion_recognition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF1050-291A-4DE9-BB2D-D9F4E22A56C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2FD87-1CE5-4FF8-B8F4-F4D62B8D79E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
+    <workbookView xWindow="7860" yWindow="0" windowWidth="14723" windowHeight="14362" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
   </bookViews>
   <sheets>
     <sheet name="TraditionalML" sheetId="1" r:id="rId1"/>
     <sheet name="TraditionalML_enhanced_data" sheetId="3" r:id="rId2"/>
     <sheet name="TraditionalML_female_male_dif" sheetId="2" r:id="rId3"/>
+    <sheet name="TraditionalML_top_features_only" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TraditionalML!$A$1:$H$54</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="345">
   <si>
     <t>SVM</t>
   </si>
@@ -969,9 +970,6 @@
     <t>68.49%</t>
   </si>
   <si>
-    <t>own featurewiz (233)</t>
-  </si>
-  <si>
     <t>80.18%</t>
   </si>
   <si>
@@ -1008,9 +1006,6 @@
     <t>59.42%</t>
   </si>
   <si>
-    <t>own featurewiz (229)</t>
-  </si>
-  <si>
     <t>99.37%</t>
   </si>
   <si>
@@ -1038,9 +1033,6 @@
     <t>58.55%</t>
   </si>
   <si>
-    <t>own featurewiz (201)</t>
-  </si>
-  <si>
     <t>99.39%</t>
   </si>
   <si>
@@ -1053,18 +1045,12 @@
     <t>64.56%</t>
   </si>
   <si>
-    <t>own featurewiz (235)</t>
-  </si>
-  <si>
     <t>76.42%</t>
   </si>
   <si>
     <t>70.98%</t>
   </si>
   <si>
-    <t>own featurewiz (236)</t>
-  </si>
-  <si>
     <t>99.81%</t>
   </si>
   <si>
@@ -1129,6 +1115,171 @@
   </si>
   <si>
     <t>61.37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 macro train </t>
+  </si>
+  <si>
+    <t>(with featurewiz 0.3.2)</t>
+  </si>
+  <si>
+    <t>(with featurewiz 0.2.8)</t>
+  </si>
+  <si>
+    <t>99.57%</t>
+  </si>
+  <si>
+    <t>79.17%</t>
+  </si>
+  <si>
+    <t>99.86%</t>
+  </si>
+  <si>
+    <t>70.96%</t>
+  </si>
+  <si>
+    <t>own featurewiz (127/233)</t>
+  </si>
+  <si>
+    <t>71.81%</t>
+  </si>
+  <si>
+    <t>own featurewiz (190/236)</t>
+  </si>
+  <si>
+    <t>99.79%</t>
+  </si>
+  <si>
+    <t>50.30%</t>
+  </si>
+  <si>
+    <t>98.94%</t>
+  </si>
+  <si>
+    <t>45.32%</t>
+  </si>
+  <si>
+    <t>96.76%</t>
+  </si>
+  <si>
+    <t>48.82%</t>
+  </si>
+  <si>
+    <t>own featurewiz (192/229)</t>
+  </si>
+  <si>
+    <t>98.60%</t>
+  </si>
+  <si>
+    <t>67.21%</t>
+  </si>
+  <si>
+    <t>98.16%</t>
+  </si>
+  <si>
+    <t>61.70%</t>
+  </si>
+  <si>
+    <t>96.00%</t>
+  </si>
+  <si>
+    <t>62.42%</t>
+  </si>
+  <si>
+    <t>own featurewiz (186/201)</t>
+  </si>
+  <si>
+    <t>98.41%</t>
+  </si>
+  <si>
+    <t>70.12%</t>
+  </si>
+  <si>
+    <t>94.63%</t>
+  </si>
+  <si>
+    <t>61.48%</t>
+  </si>
+  <si>
+    <t>92.87%</t>
+  </si>
+  <si>
+    <t>62.82%</t>
+  </si>
+  <si>
+    <t>72.75%</t>
+  </si>
+  <si>
+    <t>61.97%</t>
+  </si>
+  <si>
+    <t>65.38%</t>
+  </si>
+  <si>
+    <t>own featurewiz (130/235)</t>
+  </si>
+  <si>
+    <t>Top features</t>
+  </si>
+  <si>
+    <t>SVM best model</t>
+  </si>
+  <si>
+    <t>67.27%</t>
+  </si>
+  <si>
+    <t>95.18%</t>
+  </si>
+  <si>
+    <t>46.37%</t>
+  </si>
+  <si>
+    <t>72.54%</t>
+  </si>
+  <si>
+    <t>77.89%</t>
+  </si>
+  <si>
+    <t>78.57%</t>
+  </si>
+  <si>
+    <t>RFC best model</t>
+  </si>
+  <si>
+    <t>56.55%</t>
+  </si>
+  <si>
+    <t>71.58%</t>
+  </si>
+  <si>
+    <t>73.81%</t>
+  </si>
+  <si>
+    <t>77.31%</t>
+  </si>
+  <si>
+    <t>76.62%</t>
+  </si>
+  <si>
+    <t>already with 20 quite high!</t>
+  </si>
+  <si>
+    <t>XGB best model</t>
+  </si>
+  <si>
+    <t>59.44%</t>
+  </si>
+  <si>
+    <t>70.74%</t>
+  </si>
+  <si>
+    <t>72.91%</t>
+  </si>
+  <si>
+    <t>78.54%</t>
+  </si>
+  <si>
+    <t>79.35%</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1311,11 +1462,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1504,6 +1666,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1821,9 +2007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC463B8-7CA3-421A-B5A9-34F975ADEC63}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3214,13 +3400,13 @@
         <v>121</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="57" x14ac:dyDescent="0.45">
@@ -3254,13 +3440,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6298E22-CAFA-4DDD-AF4D-CCE1042CB008}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3272,55 +3458,50 @@
     <col min="5" max="5" width="37.46484375" customWidth="1"/>
     <col min="6" max="6" width="12.19921875" style="55" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.46484375" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F1" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="65"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="H2" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="57" t="s">
         <v>233</v>
       </c>
@@ -3331,88 +3512,96 @@
         <v>80</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="58" t="s">
+      <c r="E4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B5" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="59" t="s">
+      <c r="C5" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E5" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="F5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+    </row>
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
         <v>234</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>277</v>
+      <c r="C6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="54" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="G6" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
         <v>234</v>
       </c>
@@ -3423,134 +3612,158 @@
         <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>228</v>
+        <v>121</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>269</v>
+      <c r="B8" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>226</v>
+        <v>141</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>228</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="24" t="s">
         <v>234</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="46" t="s">
+      <c r="E10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="46" t="s">
+      <c r="B11" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E11" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="F11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
         <v>235</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="C12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="24" t="s">
         <v>235</v>
       </c>
@@ -3561,136 +3774,160 @@
         <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>239</v>
+        <v>121</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>276</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>241</v>
+      <c r="B14" s="24" t="s">
+        <v>236</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>226</v>
+        <v>141</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>228</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="24" t="s">
         <v>235</v>
       </c>
       <c r="B15" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="46" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="46" t="s">
+      <c r="B17" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E17" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="56" t="s">
+      <c r="F17" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="24" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
-        <v>244</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="C18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A19" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>236</v>
@@ -3699,136 +3936,160 @@
         <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E20" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F20" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="24" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="C24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A25" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>236</v>
@@ -3837,136 +4098,160 @@
         <v>80</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A26" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E26" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="H26" s="5"/>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A27" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="51" t="s">
+      <c r="I27" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="5" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A28" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="H29" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="I29" s="56" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A27" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="45" t="s">
+    <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A30" s="24" t="s">
         <v>257</v>
-      </c>
-      <c r="G28" s="56" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A29" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A30" s="24" t="s">
-        <v>259</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="C30" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="48"/>
+    </row>
+    <row r="31" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A31" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>236</v>
@@ -3975,88 +4260,137 @@
         <v>80</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+    </row>
+    <row r="32" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A32" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E32" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F32" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="54"/>
+    </row>
+    <row r="33" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A33" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="I33" s="54" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A32" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="51" t="s">
+    <row r="34" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A34" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="H35" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="I35" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="G32" s="54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A33" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="F34" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="G34" s="56" t="s">
-        <v>268</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4068,7 +4402,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4926,4 +5260,297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406A18D3-3750-49D4-BD02-AFCEEEB93861}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="67">
+        <v>96</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="67">
+        <v>10</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="67">
+        <v>20</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="67">
+        <v>30</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="67">
+        <v>40</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="71">
+        <v>50</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="69">
+        <v>96</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="69">
+        <v>10</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="69">
+        <v>20</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" s="69">
+        <v>30</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="69">
+        <v>40</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="70" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="71">
+        <v>50</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="69">
+        <v>96</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="69">
+        <v>10</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="69">
+        <v>20</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="69">
+        <v>30</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="69">
+        <v>40</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="69">
+        <v>50</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/results_overview.xlsx
+++ b/results/results_overview.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim-Carolin\Documents\GitHub\automatic_speech_emotion_recognition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2FD87-1CE5-4FF8-B8F4-F4D62B8D79E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6429B-E642-4EB5-99DA-BDA01862B1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="0" windowWidth="14723" windowHeight="14362" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
   </bookViews>
   <sheets>
     <sheet name="TraditionalML" sheetId="1" r:id="rId1"/>
-    <sheet name="TraditionalML_enhanced_data" sheetId="3" r:id="rId2"/>
-    <sheet name="TraditionalML_female_male_dif" sheetId="2" r:id="rId3"/>
-    <sheet name="TraditionalML_top_features_only" sheetId="4" r:id="rId4"/>
+    <sheet name="TraditionalML_NNexperiments" sheetId="5" r:id="rId2"/>
+    <sheet name="TraditionalML_enhanced_data" sheetId="3" r:id="rId3"/>
+    <sheet name="TraditionalML_female_male_dif" sheetId="2" r:id="rId4"/>
+    <sheet name="TraditionalML_top_features_only" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TraditionalML!$A$1:$H$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TraditionalML_female_male_dif!$A$1:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TraditionalML_female_male_dif!$A$1:$I$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="392">
   <si>
     <t>SVM</t>
   </si>
@@ -1280,6 +1281,147 @@
   </si>
   <si>
     <t>79.35%</t>
+  </si>
+  <si>
+    <t>Adam optimizer, Cross-entropy loss stayed the same for all models</t>
+  </si>
+  <si>
+    <t>MLP-FFNN - hidden 3</t>
+  </si>
+  <si>
+    <t>GFFNN - hidden 5</t>
+  </si>
+  <si>
+    <t>hidden_dims: 64-128-64</t>
+  </si>
+  <si>
+    <t>99.48%</t>
+  </si>
+  <si>
+    <t>82.81%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden_dims = [128, 64, 32, 64, 128]; skip only to hidden layer 3 </t>
+  </si>
+  <si>
+    <t>hidden_dims = [128, 64, 32, 64, 128]; skip only to hidden layer 4</t>
+  </si>
+  <si>
+    <t>hidden_dims = [128, 64, 32, 64, 128]; skip only to hidden layer 5</t>
+  </si>
+  <si>
+    <t>hidden_dims = [128, 64, 32, 64, 128]; skip only to hidden layer 2</t>
+  </si>
+  <si>
+    <t>hidden_dims = [128, 64, 32, 64, 128]; skip to all hidden layers (except first)</t>
+  </si>
+  <si>
+    <t>93.42%</t>
+  </si>
+  <si>
+    <t>74.83%</t>
+  </si>
+  <si>
+    <t>86.24%</t>
+  </si>
+  <si>
+    <t>hidden_dims = [32, 32, 32, 32, 32]; skip only to hidden layer 4</t>
+  </si>
+  <si>
+    <t>85.60%</t>
+  </si>
+  <si>
+    <t>85.48%</t>
+  </si>
+  <si>
+    <t>89.49%</t>
+  </si>
+  <si>
+    <t>79.83%</t>
+  </si>
+  <si>
+    <t>80.51%</t>
+  </si>
+  <si>
+    <t>hidden_dims = [64, 32, 16, 32, 64]; skip only to hidden layer 4</t>
+  </si>
+  <si>
+    <t>99.32%</t>
+  </si>
+  <si>
+    <t>87.95%</t>
+  </si>
+  <si>
+    <t>most important 97</t>
+  </si>
+  <si>
+    <t>hidden_dims = 64, 32, 64</t>
+  </si>
+  <si>
+    <t>99.61%</t>
+  </si>
+  <si>
+    <t>77.94%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.58% </t>
+  </si>
+  <si>
+    <t>74.36%</t>
+  </si>
+  <si>
+    <t>hidden_dims = [64, 32, 16, 32, 64] ; skip only to hidden layer 4</t>
+  </si>
+  <si>
+    <t>43.89%</t>
+  </si>
+  <si>
+    <t>41.96%</t>
+  </si>
+  <si>
+    <t>hidden_dims = 10, 10, 10</t>
+  </si>
+  <si>
+    <t>66.77%</t>
+  </si>
+  <si>
+    <t>59.52%</t>
+  </si>
+  <si>
+    <t>hidden_dims = 32, 64, 32</t>
+  </si>
+  <si>
+    <t>99.45%</t>
+  </si>
+  <si>
+    <t>70.65%</t>
+  </si>
+  <si>
+    <t>hidden_dims = [19, 19, 19, 19, 19]; skip only to hidden layer 4</t>
+  </si>
+  <si>
+    <t>37.07%</t>
+  </si>
+  <si>
+    <t>29.86%</t>
+  </si>
+  <si>
+    <t>93.30%</t>
+  </si>
+  <si>
+    <t>68.81%</t>
+  </si>
+  <si>
+    <t>PCA from all numerical features -&gt; 47 features</t>
+  </si>
+  <si>
+    <t>best model with PCA -&gt; results in exact same result</t>
+  </si>
+  <si>
+    <t>very bad with same PEs!</t>
+  </si>
+  <si>
+    <t>bad with same PEs!</t>
   </si>
 </sst>
 </file>
@@ -1667,29 +1809,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2007,9 +2149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC463B8-7CA3-421A-B5A9-34F975ADEC63}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3439,6 +3581,498 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B41EC8-5333-4873-95EB-41672CC1E8FC}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+    <col min="5" max="5" width="35.73046875" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="67">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="67">
+        <v>1</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="67">
+        <v>1</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="67">
+        <v>1</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="67">
+        <v>1</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="67">
+        <v>1</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="67">
+        <v>1</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="67">
+        <v>1</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="67">
+        <v>1</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="67">
+        <v>1</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="67">
+        <v>1</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="67">
+        <v>1</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="67">
+        <v>1</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="67">
+        <v>1</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="67">
+        <v>1</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="67">
+        <v>1</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>374</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6298E22-CAFA-4DDD-AF4D-CCE1042CB008}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -3463,14 +4097,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
@@ -4396,7 +5030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28281FF4-2F53-486B-9406-1DAD9CD507A7}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I33"/>
@@ -5262,7 +5896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406A18D3-3750-49D4-BD02-AFCEEEB93861}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -5293,260 +5927,260 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="3">
         <v>96</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="3" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="3">
         <v>20</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="65" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="3">
         <v>30</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="3" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="3">
         <v>40</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="9">
         <v>50</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="9" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="20">
         <v>96</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="20" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="20">
         <v>10</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="20" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="20">
         <v>20</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="65" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="20">
         <v>30</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="20" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="20">
         <v>40</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="20" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="9">
         <v>50</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="9" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="20">
         <v>96</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="20">
         <v>10</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="20">
         <v>20</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="20" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="20">
         <v>30</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="20" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="20">
         <v>40</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="20" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="20">
         <v>50</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="20" t="s">
         <v>344</v>
       </c>
     </row>

--- a/results/results_overview.xlsx
+++ b/results/results_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim-Carolin\Documents\GitHub\automatic_speech_emotion_recognition\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6429B-E642-4EB5-99DA-BDA01862B1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11F6D41-6387-4B6F-B6C8-4FE5765CAC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{899EA679-B183-4A51-8A5C-67DA9C3D8107}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="395">
   <si>
     <t>SVM</t>
   </si>
@@ -1422,6 +1422,15 @@
   </si>
   <si>
     <t>bad with same PEs!</t>
+  </si>
+  <si>
+    <t>hidden_dims = [128, 64, 32, 64, 128]; skip only to hidden layer 4 &amp; 5</t>
+  </si>
+  <si>
+    <t>96.77%</t>
+  </si>
+  <si>
+    <t>81.38%</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1812,26 +1821,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3582,10 +3582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B41EC8-5333-4873-95EB-41672CC1E8FC}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3595,8 +3595,8 @@
     <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.59765625" customWidth="1"/>
     <col min="5" max="5" width="35.73046875" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.46484375" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" style="66" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3627,25 +3627,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="67">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="3" t="s">
         <v>350</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -3653,321 +3653,319 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="67">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="3" t="s">
         <v>364</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="67">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="3" t="s">
         <v>361</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="67">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="3" t="s">
         <v>357</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="67">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="3" t="s">
         <v>358</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="67">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="3" t="s">
         <v>363</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="67">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G9" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E10" s="67" t="s">
         <v>365</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="67">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D11" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E11" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G11" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="67">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D12" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E12" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G12" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="67">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B13" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D13" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E13" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F13" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G13" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="67">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B14" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D14" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E14" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F14" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G14" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="67">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B15" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D15" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E15" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F15" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G15" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="67">
-        <v>1</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="E15" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="G15" s="67" t="s">
-        <v>379</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>391</v>
-      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="67">
+      <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -3976,22 +3974,24 @@
       <c r="C16" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E16" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>381</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>382</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="E16" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="67">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -4000,24 +4000,22 @@
       <c r="C17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>384</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>390</v>
-      </c>
+      <c r="D17" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="67">
+      <c r="A18" s="3">
         <v>1</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -4026,43 +4024,69 @@
       <c r="C18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F19" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G19" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="11">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="11">
         <v>1</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B20" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E20" s="67" t="s">
         <v>374</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4097,14 +4121,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="66"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
